--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,93 +40,84 @@
     <t>name</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
     <t>boring</t>
   </si>
   <si>
-    <t>guilty</t>
+    <t>disturbing</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
     <t>insane</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>shocking</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -136,40 +127,34 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>social</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>positive</t>
@@ -530,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,7 +526,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -649,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -699,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.92</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9545454545454546</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9423076923076923</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.7</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8947368421052632</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.6491228070175439</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,16 +955,16 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.5517241379310345</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +984,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8181818181818182</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.5333333333333333</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,16 +1055,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,13 +1084,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1117,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.4736842105263158</v>
+        <v>0.03642987249544627</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1141,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1149,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1167,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.4444444444444444</v>
+        <v>0.009036144578313253</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1191,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1199,13 +1184,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1217,31 +1202,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="L15">
-        <v>7</v>
-      </c>
-      <c r="M15">
-        <v>7</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1249,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1267,31 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16">
-        <v>0.04371584699453552</v>
-      </c>
-      <c r="L16">
-        <v>48</v>
-      </c>
-      <c r="M16">
-        <v>48</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1050</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1299,13 +1236,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1317,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1325,13 +1262,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1343,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1351,13 +1288,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5833333333333334</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1369,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1377,13 +1314,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4782608695652174</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1395,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1429,13 +1366,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.45</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1447,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1455,13 +1392,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1473,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1481,13 +1418,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4285714285714285</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1499,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1507,7 +1444,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.391304347826087</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -1525,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1533,13 +1470,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3714285714285714</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1551,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1559,13 +1496,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1577,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1585,13 +1522,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3191489361702128</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1603,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1611,13 +1548,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2857142857142857</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1629,85 +1566,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="C30">
-        <v>11</v>
-      </c>
-      <c r="D30">
-        <v>11</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.1025641025641026</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
